--- a/projects/2025_NJSTAP/Exceedance/tabulated/Exceedance_table_NJSTAP_praveen_latest.xlsx
+++ b/projects/2025_NJSTAP/Exceedance/tabulated/Exceedance_table_NJSTAP_praveen_latest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pk695/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pk695/werk.M2/FACTS_dev/facts.postprocess.pub/projects/2025_NJSTAP/Exceedance/tabulated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3B0446-1FD5-A44B-A266-76853AE9E850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33322129-31BB-CD49-97A5-F511F74494E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50920" yWindow="-17620" windowWidth="50920" windowHeight="24620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50920" yWindow="-17620" windowWidth="50920" windowHeight="24620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SANDY_HOOK" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Atlantic City" sheetId="2" r:id="rId5"/>
     <sheet name="NJSTAP.Coastal" sheetId="13" r:id="rId6"/>
     <sheet name="NJSTAP_AtlanticCity" sheetId="15" r:id="rId7"/>
+    <sheet name="NJSTAP_AC_2n4FT" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="405">
   <si>
     <t>2042 (2027,2032, 2060,2081)</t>
   </si>
@@ -976,9 +977,6 @@
     <t>1219 (4FT)</t>
   </si>
   <si>
-    <t>1828 (7FT)</t>
-  </si>
-  <si>
     <t>2080 (2050,2060, 2128,2204)</t>
   </si>
   <si>
@@ -3154,6 +3152,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>1828 (6FT)</t>
+  </si>
+  <si>
+    <t>RAW</t>
   </si>
 </sst>
 </file>
@@ -3399,7 +3403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3465,6 +3469,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3508,6 +3513,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3814,7 +3822,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3830,19 +3838,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3866,7 +3874,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
@@ -3889,7 +3897,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>180</v>
@@ -3906,19 +3914,19 @@
         <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>147</v>
@@ -3932,22 +3940,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>275</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3958,22 +3966,22 @@
         <v>102</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3984,22 +3992,22 @@
         <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4028,7 +4036,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
@@ -4045,19 +4053,19 @@
         <v>185</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4068,22 +4076,22 @@
         <v>98</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="H22" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4094,22 +4102,22 @@
         <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="H23" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4120,22 +4128,22 @@
         <v>105</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4146,22 +4154,22 @@
         <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>113</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4190,7 +4198,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4206,19 +4214,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4242,7 +4250,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
@@ -4256,19 +4264,19 @@
         <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>140</v>
@@ -4282,19 +4290,19 @@
         <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>142</v>
@@ -4308,22 +4316,22 @@
         <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="H10" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4334,22 +4342,22 @@
         <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4360,22 +4368,22 @@
         <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4403,7 +4411,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
@@ -4417,22 +4425,22 @@
         <v>73</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="H21" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4443,22 +4451,22 @@
         <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="H22" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4469,22 +4477,22 @@
         <v>78</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="H23" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4495,22 +4503,22 @@
         <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>85</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4521,22 +4529,22 @@
         <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>91</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4561,7 +4569,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4577,19 +4585,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4613,7 +4621,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
@@ -4627,19 +4635,19 @@
         <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>133</v>
@@ -4653,19 +4661,19 @@
         <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>137</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>136</v>
@@ -4679,19 +4687,19 @@
         <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>139</v>
@@ -4705,22 +4713,22 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4731,22 +4739,22 @@
         <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4774,7 +4782,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
@@ -4785,25 +4793,25 @@
         <v>114</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="H21" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4814,22 +4822,22 @@
         <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="H22" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4840,22 +4848,22 @@
         <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="H23" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4866,22 +4874,22 @@
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4892,22 +4900,22 @@
         <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4932,7 +4940,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4946,19 +4954,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4982,7 +4990,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
@@ -4996,19 +5004,19 @@
         <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>125</v>
@@ -5022,19 +5030,19 @@
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>130</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>129</v>
@@ -5048,19 +5056,19 @@
         <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>132</v>
@@ -5074,22 +5082,22 @@
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5100,22 +5108,22 @@
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5146,7 +5154,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
@@ -5160,22 +5168,22 @@
         <v>128</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>335</v>
-      </c>
       <c r="H21" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5186,22 +5194,22 @@
         <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="H22" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -5212,22 +5220,22 @@
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="H23" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -5238,22 +5246,22 @@
         <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -5264,22 +5272,22 @@
         <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -5307,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D67DA9-CC0F-8247-A231-EFCA8722AEB0}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5324,19 +5332,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5361,7 +5369,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
@@ -5375,19 +5383,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>121</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>120</v>
@@ -5401,19 +5409,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>124</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>123</v>
@@ -5427,22 +5435,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>390</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5453,22 +5461,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5479,22 +5487,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5559,7 +5567,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
@@ -5573,22 +5581,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="H21" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5599,22 +5607,22 @@
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="H22" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -5625,22 +5633,22 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="H23" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -5651,22 +5659,22 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -5677,22 +5685,22 @@
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -5734,37 +5742,37 @@
       <c r="A3" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
       <c r="Y3" s="8"/>
       <c r="AA3" s="1"/>
     </row>
@@ -6509,37 +6517,37 @@
       <c r="A21" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="30" t="s">
+      <c r="T21" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -7277,37 +7285,37 @@
       <c r="A38" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="30" t="s">
+      <c r="N38" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
       <c r="S38" s="8"/>
-      <c r="T38" s="30" t="s">
+      <c r="T38" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
       <c r="Y38" s="8"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -8047,23 +8055,23 @@
       <c r="A55" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I55" s="34" t="s">
+      <c r="I55" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="J55" s="34"/>
+      <c r="J55" s="35"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="I56" s="33"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
@@ -8074,7 +8082,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7">
@@ -8085,8 +8093,8 @@
         <f>MAX(E5:E7,E12:E14,E23:E25,E30:E32,E40:E42,E47:E49)</f>
         <v>2056</v>
       </c>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
       <c r="J57" s="7">
         <f>MIN(J5,J23,J40)</f>
         <v>2091</v>
@@ -8109,13 +8117,13 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -8126,13 +8134,13 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -8143,13 +8151,13 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -8160,13 +8168,13 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -8177,13 +8185,13 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -8194,13 +8202,13 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -8211,13 +8219,13 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -8228,8 +8236,8 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -8240,8 +8248,8 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -8252,8 +8260,8 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -8264,16 +8272,16 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="71" spans="8:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I71" s="34" t="s">
+      <c r="I71" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="J71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="I72" s="33"/>
+      <c r="I72" s="34"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -8284,8 +8292,8 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
       <c r="J73" s="7">
         <f>MIN(J6,J24,J41)</f>
         <v>2082</v>
@@ -8308,8 +8316,8 @@
       </c>
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -8320,8 +8328,8 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -8332,8 +8340,8 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -8344,8 +8352,8 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -8356,8 +8364,8 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
@@ -8368,8 +8376,8 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -8380,8 +8388,8 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -8392,8 +8400,8 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -8404,8 +8412,8 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -8416,8 +8424,8 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -8428,16 +8436,16 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="86" spans="6:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="I86" s="34" t="s">
+      <c r="I86" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="J86" s="34"/>
+      <c r="J86" s="35"/>
     </row>
     <row r="87" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="I87" s="33"/>
+      <c r="I87" s="34"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -8448,8 +8456,8 @@
       <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
       <c r="J88" s="7">
         <f>MIN(J7,J25,J42)</f>
         <v>2078</v>
@@ -8472,8 +8480,8 @@
       </c>
     </row>
     <row r="89" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -8486,8 +8494,8 @@
     <row r="90" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
       <c r="J90" s="11"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -8501,8 +8509,8 @@
     <row r="91" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
       <c r="J91" s="11"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -8516,8 +8524,8 @@
     <row r="92" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
       <c r="J92" s="11"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -8531,8 +8539,8 @@
     <row r="93" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F93" s="5"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
       <c r="J93" s="11"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -8546,8 +8554,8 @@
     <row r="94" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F94" s="5"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
       <c r="J94" s="11"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -8559,8 +8567,8 @@
       <c r="S94" s="4"/>
     </row>
     <row r="95" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -8571,8 +8579,8 @@
       <c r="Q95" s="7"/>
     </row>
     <row r="96" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -8583,8 +8591,8 @@
       <c r="Q96" s="7"/>
     </row>
     <row r="97" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -8595,8 +8603,8 @@
       <c r="Q97" s="7"/>
     </row>
     <row r="98" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -8607,26 +8615,26 @@
       <c r="Q98" s="7"/>
     </row>
     <row r="101" spans="8:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I101" s="34" t="s">
+      <c r="I101" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J101" s="34"/>
-      <c r="P101" s="34" t="s">
+      <c r="J101" s="35"/>
+      <c r="P101" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="Q101" s="34"/>
+      <c r="Q101" s="35"/>
     </row>
     <row r="102" spans="8:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="35" t="s">
+      <c r="K102" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L102" s="35"/>
-      <c r="P102" s="35" t="s">
+      <c r="L102" s="36"/>
+      <c r="P102" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="Q102" s="35"/>
+      <c r="Q102" s="36"/>
     </row>
     <row r="103" spans="8:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I103" s="7">
@@ -8634,182 +8642,182 @@
         <v>2060</v>
       </c>
       <c r="J103" s="7"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
       <c r="O103">
         <f>MIN(O5,O12,O23,O30,O40,O47)</f>
         <v>2099</v>
       </c>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
     </row>
     <row r="104" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
     </row>
     <row r="105" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35"/>
-      <c r="P105" s="35"/>
-      <c r="Q105" s="35"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
     </row>
     <row r="106" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="35"/>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
     </row>
     <row r="107" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35"/>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="35"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="36"/>
     </row>
     <row r="108" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="35"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
     </row>
     <row r="109" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="35"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="P109" s="36"/>
+      <c r="Q109" s="36"/>
     </row>
     <row r="110" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="35"/>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="35"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="36"/>
     </row>
     <row r="111" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
-      <c r="K111" s="35"/>
-      <c r="L111" s="35"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="36"/>
     </row>
     <row r="115" spans="15:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="P115" s="34" t="s">
+      <c r="P115" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="Q115" s="34"/>
+      <c r="Q115" s="35"/>
     </row>
     <row r="116" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P116" s="35" t="s">
+      <c r="P116" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="Q116" s="35"/>
+      <c r="Q116" s="36"/>
     </row>
     <row r="117" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O117">
         <f>MIN(O6,O13,O24,O41,O48,O31)</f>
         <v>2088</v>
       </c>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
+      <c r="P117" s="36"/>
+      <c r="Q117" s="36"/>
     </row>
     <row r="118" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
     </row>
     <row r="119" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P119" s="35"/>
-      <c r="Q119" s="35"/>
+      <c r="P119" s="36"/>
+      <c r="Q119" s="36"/>
     </row>
     <row r="120" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P120" s="35"/>
-      <c r="Q120" s="35"/>
+      <c r="P120" s="36"/>
+      <c r="Q120" s="36"/>
     </row>
     <row r="121" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35"/>
+      <c r="P121" s="36"/>
+      <c r="Q121" s="36"/>
     </row>
     <row r="122" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P122" s="35"/>
-      <c r="Q122" s="35"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
     </row>
     <row r="123" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P123" s="35"/>
-      <c r="Q123" s="35"/>
+      <c r="P123" s="36"/>
+      <c r="Q123" s="36"/>
     </row>
     <row r="124" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P124" s="35"/>
-      <c r="Q124" s="35"/>
+      <c r="P124" s="36"/>
+      <c r="Q124" s="36"/>
     </row>
     <row r="125" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P125" s="35"/>
-      <c r="Q125" s="35"/>
+      <c r="P125" s="36"/>
+      <c r="Q125" s="36"/>
     </row>
     <row r="128" spans="15:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="P128" s="34" t="s">
+      <c r="P128" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="Q128" s="34"/>
+      <c r="Q128" s="35"/>
     </row>
     <row r="129" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P129" s="35" t="s">
+      <c r="P129" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="Q129" s="35"/>
+      <c r="Q129" s="36"/>
     </row>
     <row r="130" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O130">
         <f>MIN(O7,O14,O25,O32,O42,O49)</f>
         <v>2081</v>
       </c>
-      <c r="P130" s="35"/>
-      <c r="Q130" s="35"/>
+      <c r="P130" s="36"/>
+      <c r="Q130" s="36"/>
     </row>
     <row r="131" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P131" s="35"/>
-      <c r="Q131" s="35"/>
+      <c r="P131" s="36"/>
+      <c r="Q131" s="36"/>
     </row>
     <row r="132" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P132" s="35"/>
-      <c r="Q132" s="35"/>
+      <c r="P132" s="36"/>
+      <c r="Q132" s="36"/>
     </row>
     <row r="133" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P133" s="35"/>
-      <c r="Q133" s="35"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="36"/>
     </row>
     <row r="134" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P134" s="35"/>
-      <c r="Q134" s="35"/>
+      <c r="P134" s="36"/>
+      <c r="Q134" s="36"/>
     </row>
     <row r="135" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P135" s="35"/>
-      <c r="Q135" s="35"/>
+      <c r="P135" s="36"/>
+      <c r="Q135" s="36"/>
     </row>
     <row r="136" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P136" s="35"/>
-      <c r="Q136" s="35"/>
+      <c r="P136" s="36"/>
+      <c r="Q136" s="36"/>
     </row>
     <row r="137" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P137" s="35"/>
-      <c r="Q137" s="35"/>
+      <c r="P137" s="36"/>
+      <c r="Q137" s="36"/>
     </row>
     <row r="138" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P138" s="35"/>
-      <c r="Q138" s="35"/>
+      <c r="P138" s="36"/>
+      <c r="Q138" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -8849,8 +8857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D21C4-B45D-3048-8C06-BA7A274B49E3}">
   <dimension ref="A3:AC106"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U119" sqref="U119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8871,37 +8879,37 @@
       <c r="A3" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -9651,23 +9659,23 @@
       <c r="A23" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -9678,7 +9686,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7">
@@ -9689,8 +9697,8 @@
         <f>MAX(E5:E7,E12:E14)</f>
         <v>2054</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="11">
         <v>2091</v>
       </c>
@@ -9709,13 +9717,13 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -9728,7 +9736,7 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="16">
@@ -9739,8 +9747,8 @@
         <f>CEILING(E25, 5)</f>
         <v>2055</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="18">
         <f>FLOOR(J25,5)</f>
         <v>2090</v>
@@ -9763,13 +9771,13 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -9780,13 +9788,13 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -9797,13 +9805,13 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -9814,13 +9822,13 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -9831,13 +9839,13 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -9848,8 +9856,8 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -9860,8 +9868,8 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -9872,8 +9880,8 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -9885,32 +9893,32 @@
     </row>
     <row r="37" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
     </row>
     <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="I39" s="34" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="I39" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="J39" s="34"/>
+      <c r="J39" s="35"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="H40" s="33" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="H40" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -9921,12 +9929,12 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="11">
         <v>2082</v>
       </c>
@@ -9945,12 +9953,12 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -9961,12 +9969,12 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
       <c r="J43" s="18">
         <f>FLOOR(J41,5)</f>
         <v>2080</v>
@@ -9989,12 +9997,12 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -10005,8 +10013,8 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -10017,8 +10025,8 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -10029,8 +10037,8 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -10041,8 +10049,8 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -10053,8 +10061,8 @@
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -10065,8 +10073,8 @@
       <c r="Q49" s="7"/>
     </row>
     <row r="50" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -10077,8 +10085,8 @@
       <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -10089,16 +10097,16 @@
       <c r="Q51" s="7"/>
     </row>
     <row r="54" spans="6:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="J54" s="34"/>
+      <c r="J54" s="35"/>
     </row>
     <row r="55" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="I55" s="33"/>
+      <c r="I55" s="34"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -10109,8 +10117,8 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="11">
         <v>2078</v>
       </c>
@@ -10129,8 +10137,8 @@
       </c>
     </row>
     <row r="57" spans="6:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -10143,8 +10151,8 @@
     <row r="58" spans="6:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="22">
         <f>FLOOR(J56,5)</f>
         <v>2075</v>
@@ -10164,8 +10172,8 @@
     <row r="59" spans="6:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
       <c r="J59" s="11"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -10185,8 +10193,8 @@
     <row r="60" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="11"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -10200,8 +10208,8 @@
     <row r="61" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="11"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -10215,8 +10223,8 @@
     <row r="62" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F62" s="5"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="11"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -10228,8 +10236,8 @@
       <c r="S62" s="4"/>
     </row>
     <row r="63" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -10240,8 +10248,8 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -10252,8 +10260,8 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -10264,8 +10272,8 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -10276,26 +10284,26 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="69" spans="8:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I69" s="34" t="s">
+      <c r="I69" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J69" s="34"/>
-      <c r="P69" s="34" t="s">
+      <c r="J69" s="35"/>
+      <c r="P69" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="Q69" s="34"/>
+      <c r="Q69" s="35"/>
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="35" t="s">
+      <c r="K70" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="L70" s="35"/>
-      <c r="P70" s="35" t="s">
+      <c r="L70" s="36"/>
+      <c r="P70" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="Q70" s="35"/>
+      <c r="Q70" s="36"/>
     </row>
     <row r="71" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I71" s="7">
@@ -10303,194 +10311,194 @@
         <v>2060</v>
       </c>
       <c r="J71" s="7"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
       <c r="O71">
         <f>MIN(O5,O12)</f>
         <v>2099</v>
       </c>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
     </row>
     <row r="72" spans="8:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
     </row>
     <row r="73" spans="8:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
       <c r="O73" s="24">
         <f>FLOOR(O71,5)</f>
         <v>2095</v>
       </c>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
     </row>
     <row r="77" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
     </row>
     <row r="78" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
     </row>
     <row r="79" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
     </row>
     <row r="83" spans="15:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="P83" s="34" t="s">
+      <c r="P83" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="Q83" s="34"/>
+      <c r="Q83" s="35"/>
     </row>
     <row r="84" spans="15:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P84" s="35" t="s">
+      <c r="P84" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="Q84" s="35"/>
+      <c r="Q84" s="36"/>
     </row>
     <row r="85" spans="15:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O85">
         <f>MIN(O6,O13)</f>
         <v>2088</v>
       </c>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
     </row>
     <row r="86" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
     </row>
     <row r="87" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O87" s="24">
         <f>FLOOR(O85,5)</f>
         <v>2085</v>
       </c>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
     </row>
     <row r="88" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
     </row>
     <row r="89" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
     </row>
     <row r="90" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
     </row>
     <row r="91" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
     </row>
     <row r="92" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
     </row>
     <row r="93" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
     </row>
     <row r="96" spans="15:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="P96" s="34" t="s">
+      <c r="P96" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="Q96" s="34"/>
+      <c r="Q96" s="35"/>
     </row>
     <row r="97" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P97" s="35" t="s">
+      <c r="P97" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="Q97" s="35"/>
+      <c r="Q97" s="36"/>
     </row>
     <row r="98" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O98">
         <f>MIN(O7,O14)</f>
         <v>2081</v>
       </c>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
     </row>
     <row r="99" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
     </row>
     <row r="100" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O100" s="24">
         <f>FLOOR(O98,5)</f>
         <v>2080</v>
       </c>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
     </row>
     <row r="101" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
     </row>
     <row r="102" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
     </row>
     <row r="103" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
     </row>
     <row r="104" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
     </row>
     <row r="105" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P105" s="35"/>
-      <c r="Q105" s="35"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
     </row>
     <row r="106" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10517,4 +10525,1757 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C611142E-2A92-E645-8437-605E0789D718}">
+  <dimension ref="A1:AI106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="19" max="19" width="1.6640625" customWidth="1"/>
+    <col min="25" max="25" width="1.83203125" customWidth="1"/>
+    <col min="27" max="27" width="32.83203125" customWidth="1"/>
+    <col min="28" max="28" width="32.6640625" customWidth="1"/>
+    <col min="29" max="29" width="32.1640625" customWidth="1"/>
+    <col min="30" max="30" width="29.33203125" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" customWidth="1"/>
+    <col min="32" max="32" width="12.5" customWidth="1"/>
+    <col min="33" max="33" width="14.83203125" customWidth="1"/>
+    <col min="34" max="34" width="10" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" customWidth="1"/>
+    <col min="36" max="36" width="8.83203125" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="38" max="38" width="16.83203125" customWidth="1"/>
+    <col min="39" max="39" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="AA3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AA4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2041</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2028</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2032</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2054</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2067</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4">
+        <v>2080</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2050</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2060</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2125</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2190</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="4">
+        <v>2175</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2100</v>
+      </c>
+      <c r="P5">
+        <v>2121</v>
+      </c>
+      <c r="Q5">
+        <v>2301</v>
+      </c>
+      <c r="R5">
+        <v>2301</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2041</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2028</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2032</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2052</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2061</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="4">
+        <v>2072</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2050</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2058</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2092</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2121</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="4">
+        <v>2136</v>
+      </c>
+      <c r="O6" s="10">
+        <v>2090</v>
+      </c>
+      <c r="P6">
+        <v>2104</v>
+      </c>
+      <c r="Q6">
+        <v>2194</v>
+      </c>
+      <c r="R6">
+        <v>2270</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2041</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2028</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2032</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2052</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2059</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4">
+        <v>2070</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2050</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2058</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2083</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2094</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="4">
+        <v>2120</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2085</v>
+      </c>
+      <c r="P7">
+        <v>2096</v>
+      </c>
+      <c r="Q7">
+        <v>2154</v>
+      </c>
+      <c r="R7">
+        <v>2185</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="AA7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2039</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2028</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2032</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2049</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2056</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4">
+        <v>2066</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2048</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2054</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2078</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2087</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="4">
+        <v>2111</v>
+      </c>
+      <c r="O8" s="10">
+        <v>2079</v>
+      </c>
+      <c r="P8">
+        <v>2089</v>
+      </c>
+      <c r="Q8">
+        <v>2140</v>
+      </c>
+      <c r="R8">
+        <v>2167</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE9" s="27"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="AA10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE10" s="27"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="AA11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE11" s="27"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2040</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2027</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2031</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2054</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2067</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10">
+        <v>2079</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2047</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2056</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2125</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2190</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="4">
+        <v>2164</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2084</v>
+      </c>
+      <c r="P12" s="26">
+        <v>2108</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2301</v>
+      </c>
+      <c r="R12" s="26">
+        <v>2301</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="AA12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE12" s="27"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2040</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2027</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2031</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2052</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2061</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10">
+        <v>2071</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2046</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2054</v>
+      </c>
+      <c r="K13" s="10">
+        <v>2092</v>
+      </c>
+      <c r="L13" s="10">
+        <v>2121</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="4">
+        <v>2129</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2076</v>
+      </c>
+      <c r="P13" s="26">
+        <v>2092</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>2194</v>
+      </c>
+      <c r="R13" s="26">
+        <v>2270</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="AA13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE13" s="26"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2041</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2027</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2031</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2052</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2059</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10">
+        <v>2068</v>
+      </c>
+      <c r="I14" s="10">
+        <v>2045</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2053</v>
+      </c>
+      <c r="K14" s="10">
+        <v>2083</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2094</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="4">
+        <v>2112</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2071</v>
+      </c>
+      <c r="P14" s="26">
+        <v>2084</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2154</v>
+      </c>
+      <c r="R14" s="26">
+        <v>2185</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="AE14" s="26"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2039</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2028</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2031</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2049</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2056</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10">
+        <v>2065</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2044</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2050</v>
+      </c>
+      <c r="K15" s="10">
+        <v>2078</v>
+      </c>
+      <c r="L15" s="10">
+        <v>2087</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="4">
+        <v>2096</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2067</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2079</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2140</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2167</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="AA16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" s="2"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="1:35" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AA20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE20" s="2"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="27"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AA21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE21" s="2"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="27"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AA22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE22" s="1"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="27"/>
+    </row>
+    <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="AA23" s="2"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="26"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="H24" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="AA24" s="2"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="26"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7">
+        <f>MIN(D5:D7,D12:D14)</f>
+        <v>2031</v>
+      </c>
+      <c r="E25" s="7">
+        <f>MAX(E5:E7,E12:E14)</f>
+        <v>2054</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="11">
+        <v>2060</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2125</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="11">
+        <v>2121</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>2301</v>
+      </c>
+      <c r="AA25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AI25" s="2"/>
+    </row>
+    <row r="26" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="AA26" s="2"/>
+      <c r="AH26" s="4"/>
+    </row>
+    <row r="27" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="16">
+        <f>FLOOR(D25,5)</f>
+        <v>2030</v>
+      </c>
+      <c r="E27" s="17">
+        <f>CEILING(E25, 5)</f>
+        <v>2055</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="18">
+        <f>FLOOR(J25,5)</f>
+        <v>2060</v>
+      </c>
+      <c r="K27" s="17">
+        <f>CEILING(K25, 5)</f>
+        <v>2125</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="9">
+        <f>FLOOR(P25,5)</f>
+        <v>2120</v>
+      </c>
+      <c r="Q27" s="11">
+        <f>CEILING(Q25, 5)</f>
+        <v>2305</v>
+      </c>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="AA28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AI28" s="2"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="AA29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AI29" s="2"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="AG30" s="2"/>
+      <c r="AI30" s="2"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="AG31" s="2"/>
+      <c r="AI31" s="2"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="AE33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="27"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="27"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="26"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="26"/>
+    </row>
+    <row r="37" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="26"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+    </row>
+    <row r="39" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="I39" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="H40" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="11">
+        <v>2058</v>
+      </c>
+      <c r="K41" s="11">
+        <v>2092</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="11">
+        <v>2104</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="18">
+        <f>FLOOR(J41,5)</f>
+        <v>2055</v>
+      </c>
+      <c r="K43" s="23">
+        <f>CEILING(K41, 5)</f>
+        <v>2095</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="20">
+        <f>FLOOR(P41,5)</f>
+        <v>2100</v>
+      </c>
+      <c r="Q43" s="29">
+        <f>CEILING(Q41, 5)</f>
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="54" spans="6:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="I54" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="H55" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="11">
+        <v>2058</v>
+      </c>
+      <c r="K56" s="11">
+        <v>2083</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="11">
+        <v>2096</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="57" spans="6:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="6:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="22">
+        <f>FLOOR(J56,5)</f>
+        <v>2055</v>
+      </c>
+      <c r="K58" s="23">
+        <f>CEILING(K56, 5)</f>
+        <v>2085</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="6:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="18">
+        <f>FLOOR(P56,5)</f>
+        <v>2095</v>
+      </c>
+      <c r="Q59" s="17">
+        <f>CEILING(Q56, 5)</f>
+        <v>2155</v>
+      </c>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F61" s="5"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F62" s="5"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+    </row>
+    <row r="64" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+    </row>
+    <row r="65" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+    </row>
+    <row r="66" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+    </row>
+    <row r="69" spans="8:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="I69" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="J69" s="35"/>
+      <c r="P69" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q69" s="35"/>
+    </row>
+    <row r="70" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="L70" s="36"/>
+      <c r="P70" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q70" s="36"/>
+    </row>
+    <row r="71" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I71" s="7">
+        <f>MIN(I5:I7,I12:I14)</f>
+        <v>2045</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="O71">
+        <f>MIN(O5,O12)</f>
+        <v>2084</v>
+      </c>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+    </row>
+    <row r="72" spans="8:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+    </row>
+    <row r="73" spans="8:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="O73" s="24">
+        <f>FLOOR(O71,5)</f>
+        <v>2080</v>
+      </c>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+    </row>
+    <row r="74" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+    </row>
+    <row r="75" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+    </row>
+    <row r="76" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+    </row>
+    <row r="77" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+    </row>
+    <row r="78" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+    </row>
+    <row r="79" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+    </row>
+    <row r="83" spans="15:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="P83" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q83" s="35"/>
+    </row>
+    <row r="84" spans="15:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P84" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q84" s="36"/>
+    </row>
+    <row r="85" spans="15:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <f>MIN(O6,O13)</f>
+        <v>2076</v>
+      </c>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+    </row>
+    <row r="86" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+    </row>
+    <row r="87" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="24">
+        <f>FLOOR(O85,5)</f>
+        <v>2075</v>
+      </c>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+    </row>
+    <row r="88" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+    </row>
+    <row r="89" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+    </row>
+    <row r="90" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+    </row>
+    <row r="91" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+    </row>
+    <row r="92" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+    </row>
+    <row r="93" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+    </row>
+    <row r="96" spans="15:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="P96" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q96" s="35"/>
+    </row>
+    <row r="97" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P97" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q97" s="36"/>
+    </row>
+    <row r="98" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <f>MIN(O7,O14)</f>
+        <v>2071</v>
+      </c>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+    </row>
+    <row r="99" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+    </row>
+    <row r="100" spans="15:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="24">
+        <f>FLOOR(O98,5)</f>
+        <v>2070</v>
+      </c>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+    </row>
+    <row r="101" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+    </row>
+    <row r="102" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+    </row>
+    <row r="103" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+    </row>
+    <row r="104" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+    </row>
+    <row r="105" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+    </row>
+    <row r="106" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="H24:I35"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A38:D44"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="H40:I51"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H55:I66"/>
+    <mergeCell ref="P97:Q106"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="K70:L79"/>
+    <mergeCell ref="P70:Q79"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q93"/>
+    <mergeCell ref="P96:Q96"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>